--- a/AfDD_2024_Annex_Table_Tab15.xlsx
+++ b/AfDD_2024_Annex_Table_Tab15.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BCC4A0C-222C-428B-9BCA-A398E14A6016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64377413-B333-4AD1-A870-4312B55F6B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{CF783C20-54FC-4CA7-9467-DCADEAB343A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2361B5A0-348E-4BBE-8E86-C42EFDE1A165}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab15" sheetId="1" r:id="rId1"/>
@@ -1459,7 +1459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452B6F3F-A3BB-4E84-B26A-11E8591C1ED2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4F08E1-8FC6-40E6-9E0C-3BAD777438D0}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4176,12 +4176,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{EED126C2-CB54-49B2-9139-C9F00618F396}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{43371DCE-9B3F-4505-A04B-83996625BBE2}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{32EFCD28-4012-40DF-B9B9-6AD8C4FE217E}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{BFE4FE2E-5397-4B02-B9D4-0FF9506D1294}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{62D39F4B-DD34-4D65-873C-B3D75504DF4B}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{9FC9106F-3D98-41A6-8EA9-3A1E5C81B0A6}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{762B26EF-FDE6-400B-88D4-32BE788250D6}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{FEF5D950-41B2-4302-9364-8F6D948ACFEA}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{A0048D17-87C2-42E4-AE05-954818E7B637}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{292AA66F-230C-4923-BE34-F46B3BD6C5E8}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{447FECEA-576A-47C4-B366-479CD822578D}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{4D093236-5C6B-4848-9F5D-7EA0468A099A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab15.xlsx
+++ b/AfDD_2024_Annex_Table_Tab15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64377413-B333-4AD1-A870-4312B55F6B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3741350-AB6D-4AC6-A8C5-0DA3B770DF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2361B5A0-348E-4BBE-8E86-C42EFDE1A165}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{14892BB5-D2EF-45E5-A9D4-7A0FA5367B3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab15" sheetId="1" r:id="rId1"/>
@@ -1142,8 +1142,8 @@
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1459,7 +1459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4F08E1-8FC6-40E6-9E0C-3BAD777438D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D05844-F92D-46B7-98B5-92D8A4FD1B89}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1471,7 +1471,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="12.42578125" style="81" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="12.42578125" style="82" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4132,7 +4132,7 @@
       <c r="H110" s="78"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="82" t="s">
+      <c r="B111" s="81" t="s">
         <v>170</v>
       </c>
       <c r="C111" s="78"/>
@@ -4143,7 +4143,7 @@
       <c r="H111" s="78"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="81" t="s">
         <v>167</v>
       </c>
       <c r="C112" s="78"/>
@@ -4176,12 +4176,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{762B26EF-FDE6-400B-88D4-32BE788250D6}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{FEF5D950-41B2-4302-9364-8F6D948ACFEA}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{A0048D17-87C2-42E4-AE05-954818E7B637}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{292AA66F-230C-4923-BE34-F46B3BD6C5E8}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{447FECEA-576A-47C4-B366-479CD822578D}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{4D093236-5C6B-4848-9F5D-7EA0468A099A}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{0786D90E-B2FA-4AF2-8129-61AA86A70ED1}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{88D1D5AE-7E96-425D-9F6B-3A0758A44029}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{2D07C2F2-8AEF-4EB3-B106-00E31C087169}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{63BFD93C-B473-4EF2-AABD-C4531765A7CB}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{9B8ADB4F-AA99-4FA9-B004-9A832C6F2C1B}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{7470E437-0E45-40B3-B30C-A5117627E45C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab15.xlsx
+++ b/AfDD_2024_Annex_Table_Tab15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3741350-AB6D-4AC6-A8C5-0DA3B770DF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFBBF0A3-B3D4-4296-B15C-FB0E82A3FFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{14892BB5-D2EF-45E5-A9D4-7A0FA5367B3A}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{2940AA5E-B431-49E8-8DE5-21504592C1A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab15" sheetId="1" r:id="rId1"/>
@@ -1459,7 +1459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D05844-F92D-46B7-98B5-92D8A4FD1B89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334A99B2-7E77-4348-AD55-74191C166DDE}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4176,12 +4176,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{0786D90E-B2FA-4AF2-8129-61AA86A70ED1}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{88D1D5AE-7E96-425D-9F6B-3A0758A44029}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{2D07C2F2-8AEF-4EB3-B106-00E31C087169}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{63BFD93C-B473-4EF2-AABD-C4531765A7CB}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{9B8ADB4F-AA99-4FA9-B004-9A832C6F2C1B}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{7470E437-0E45-40B3-B30C-A5117627E45C}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{30416AD6-10E5-41F2-9EE0-22CA2C0D90B3}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{D1F05E78-E7E5-4150-BC33-424764246444}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{D94D8C69-D2D9-4D7C-943C-5BBDC5192493}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{AF966552-4EAD-4C54-9508-84F177D9C92B}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{59BD4441-B460-4D7F-B4E2-86B54654DB32}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{75A7DABF-207A-483E-AB1D-370D64955BA4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="portrait" r:id="rId7"/>
